--- a/gonzales_graphs.xlsx
+++ b/gonzales_graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="7602" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="7602" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HumptyDumptyPull" sheetId="1" r:id="rId1"/>
@@ -1362,6 +1362,1736 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Startup AFAP push'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>http 1080i50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Startup AFAP push'!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>52.360652000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.765896999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.402684000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.376542000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.679747000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.513389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.058368000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.919906000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.296958</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.772099000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.043772000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.649438</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.144829999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.524864999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.548185</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.860168999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.379137999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Startup AFAP push'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>https 1080i50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Startup AFAP push'!$D$2:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>59.180278999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.482187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.692069</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.387236000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.390405999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.332595000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.931121999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.864325999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.901668999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.912341999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.864915</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.674824999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.114218000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.207162</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.358511</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.982583000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.509070000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Startup AFAP push'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1080i50 ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Startup AFAP push'!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="336156832"/>
+        <c:axId val="269665008"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>http 1080i50 kfalse</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$C$2:$C$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="17"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>https 1080i50 kfalse</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$E$2:$E$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="17"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>http qf 1080i50</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$G$2:$G$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>29.437124000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.0601649999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.6627079999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.7820320000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.585283</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.751452</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.73027</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3.6292779999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.7490410000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3.6584479999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3.6264539999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.5450349999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3.4631569999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3.9801859999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4.0023150000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3.4886180000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>3.4915850000000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>http qf 1080i50 kfalse</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$H$2:$H$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>25.279799000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16.615819999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.8063929999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.3528830000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.2415659999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.4622960000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.4734379999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4.4915880000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4.543005</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4.3592399999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4.342352</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>4.0440969999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4.4796449999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>4.6085060000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>5.3984350000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4.6441330000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>5.1094439999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>https qf 1080i50</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$I$2:$I$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>40.012239999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.5605759999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.4299059999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.6088820000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.2901769999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.4804370000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.4860040000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5.3801829999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5.5302170000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5.1470079999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5.2531410000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>5.2197370000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>14.832488</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>5.9928119999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>5.6133709999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>5.4028080000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>5.460915</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$J$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>https qf 1080i50 kfalse</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$J$2:$J$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>53.064568000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>14.348948999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10.435625999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9.8638130000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9.5038850000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.8914340000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9.6400170000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9.0158299999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9.4992959999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>11.006259</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8.6647859999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>17.975034999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>10.007667</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>10.263892999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>10.035323</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>10.425675999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>9.19923</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$K$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>qf 1080i ideal</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$K$2:$K$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>http 720p60</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$L$2:$L$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>37.046900000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9.2768130000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.1370969999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.0623060000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.8272320000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6.0423720000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0121890000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.1735340000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5.8703469999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5.9515250000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5.8111360000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>5.8053619999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>6.062875</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>5.8075760000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>13.803869000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>6.9010249999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>5.9644310000000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$M$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>http 720p60 kfalse</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$M$2:$M$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>27.875112000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9.3791729999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.9144220000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.2270519999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.5338399999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.3092509999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.6053540000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.7077419999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6.9207650000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>6.8903860000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6.6999630000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>6.7383810000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>6.4500299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>6.9872540000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6.5933299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>7.1332950000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>8.3746709999999993</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$N$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>https 720p60</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$N$2:$N$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>44.258879</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12.123417999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>11.238526</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9.7163400000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9.4020820000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>9.3885170000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9.5632009999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9.2094699999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9.460248</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>12.596997999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9.9358780000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>9.8160799999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>9.2987520000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>10.158605</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>9.2357849999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>10.02528</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>9.918666</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$O$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>https 720p60 kfalse</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$O$2:$O$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>46.149473</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>17.421484</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>13.556521999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13.319984</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>13.579186</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>13.46297</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>13.972772000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>13.248554</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>23.057189999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>16.472570999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>13.498336999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>13.937241</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13.087857</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14.004541</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14.628398000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>12.980475999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>14.747742000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="14"/>
+                <c:order val="14"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$P$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>720p60 ideal</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP push'!$P$2:$P$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>16.683333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16.683333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16.683333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>16.683333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16.683333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16.683333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>16.683333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>16.683333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>16.683333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>16.683333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>16.683333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16.683333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>16.683333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>16.683333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>16.683333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16.683333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16.683333333333334</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000E-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="336156832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="269665008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="269665008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336156832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3482,7 +5212,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -8808,6 +10538,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>1080i50 stream start with</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> keep alive</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8821,13 +10587,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -8839,7 +10611,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12184978694043694"/>
+          <c:y val="0.14772047832585949"/>
+          <c:w val="0.85393180707101179"/>
+          <c:h val="0.65026746936901947"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -8848,7 +10630,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Startup AFAP push'!$B$1</c:f>
+              <c:f>'Startup AFAP pull'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8858,81 +10640,135 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Startup AFAP pull'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Startup AFAP push'!$B$2:$B$18</c:f>
+              <c:f>'Startup AFAP pull'!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>52.360652000000002</c:v>
+                  <c:v>55.777200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.765896999999999</c:v>
+                  <c:v>27.229355999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.402684000000001</c:v>
+                  <c:v>22.155577999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.376542000000001</c:v>
+                  <c:v>22.991731999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.679747000000001</c:v>
+                  <c:v>23.810151999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.513389</c:v>
+                  <c:v>19.577248000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.058368000000002</c:v>
+                  <c:v>19.323868000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.919906000000001</c:v>
+                  <c:v>20.394939000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.296958</c:v>
+                  <c:v>19.931533000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.772099000000001</c:v>
+                  <c:v>20.054787000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.043772000000001</c:v>
+                  <c:v>20.304649999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.649438</c:v>
+                  <c:v>20.703074000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.144829999999999</c:v>
+                  <c:v>20.676507000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.524864999999998</c:v>
+                  <c:v>21.398531999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.548185</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.860168999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.379137999999999</c:v>
+                  <c:v>19.947057000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+              <c16:uniqueId val="{00000003-7C2C-424C-8576-B8704EBCFCD6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8941,7 +10777,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Startup AFAP push'!$D$1</c:f>
+              <c:f>'Startup AFAP pull'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8951,81 +10787,135 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Startup AFAP pull'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Startup AFAP push'!$D$2:$D$18</c:f>
+              <c:f>'Startup AFAP pull'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>59.180278999999999</c:v>
+                  <c:v>80.551062000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.482187</c:v>
+                  <c:v>36.529181999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.692069</c:v>
+                  <c:v>29.772309</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.387236000000001</c:v>
+                  <c:v>27.926575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.390405999999999</c:v>
+                  <c:v>28.315396</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.332595000000001</c:v>
+                  <c:v>29.991589000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.931121999999998</c:v>
+                  <c:v>26.109576000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.864325999999998</c:v>
+                  <c:v>26.448055</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.901668999999998</c:v>
+                  <c:v>26.533111999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.912341999999999</c:v>
+                  <c:v>27.750330999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.864915</c:v>
+                  <c:v>26.606476000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.674824999999998</c:v>
+                  <c:v>27.899176000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.114218000000001</c:v>
+                  <c:v>27.587392999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.207162</c:v>
+                  <c:v>26.720137999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.358511</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.982583000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.509070000000001</c:v>
+                  <c:v>28.295784999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+              <c16:uniqueId val="{00000004-7C2C-424C-8576-B8704EBCFCD6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9034,7 +10924,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Startup AFAP push'!$F$1</c:f>
+              <c:f>'Startup AFAP pull'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9044,23 +10934,85 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Startup AFAP pull'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Startup AFAP push'!$F$2:$F$18</c:f>
+              <c:f>'Startup AFAP pull'!$F$2:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -9104,12 +11056,6 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -9118,7 +11064,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+              <c16:uniqueId val="{00000002-7C2C-424C-8576-B8704EBCFCD6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9131,8 +11077,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="336156832"/>
-        <c:axId val="269665008"/>
+        <c:axId val="464928752"/>
+        <c:axId val="365166304"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -9144,7 +11090,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$C$1</c15:sqref>
+                          <c15:sqref>'Startup AFAP pull'!$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9157,36 +11103,147 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
+                  <a:ln w="34925" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent2"/>
+                      <a:schemeClr val="accent4"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP pull'!$A$2:$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$C$2:$C$18</c15:sqref>
+                          <c15:sqref>'Startup AFAP pull'!$C$2:$C$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="17"/>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>45.295689000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>29.189540999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>22.688293999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25.020571</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>22.824752</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20.532568999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20.044176</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22.006933</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>21.039738</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20.563870000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>21.516736999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>21.261096999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>22.470033999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>21.323119999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>20.090160999999998</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+                    <c16:uniqueId val="{00000000-7C2C-424C-8576-B8704EBCFCD6}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -9197,10 +11254,10 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$E$1</c15:sqref>
+                          <c15:sqref>'Startup AFAP pull'!$E$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9213,36 +11270,149 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
+                  <a:ln w="34925" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent4"/>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP pull'!$A$2:$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$E$2:$E$18</c15:sqref>
+                          <c15:sqref>'Startup AFAP pull'!$E$2:$E$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="17"/>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>68.935051000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43.524757999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>36.635005</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>32.101720999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34.751742999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>33.143163999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>31.310843999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>29.14386</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>29.0627</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>30.875454000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>29.314798</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>31.939536</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>30.829937000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>31.424752999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>31.164902999999999</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+                    <c16:uniqueId val="{00000001-7C2C-424C-8576-B8704EBCFCD6}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -9253,10 +11423,10 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$G$1</c15:sqref>
+                          <c15:sqref>'Startup AFAP pull'!$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9269,87 +11439,149 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
+                  <a:ln w="34925" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent6"/>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP pull'!$A$2:$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$G$2:$G$18</c15:sqref>
+                          <c15:sqref>'Startup AFAP pull'!$G$2:$G$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="17"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
-                        <c:v>29.437124000000001</c:v>
+                        <c:v>35.361075</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>7.0601649999999996</c:v>
+                        <c:v>13.848202000000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3.6627079999999999</c:v>
+                        <c:v>6.157254</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3.7820320000000001</c:v>
+                        <c:v>9.2565100000000005</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>3.585283</c:v>
+                        <c:v>5.8979290000000004</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>3.751452</c:v>
+                        <c:v>5.8566560000000001</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>3.73027</c:v>
+                        <c:v>6.9667310000000002</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>3.6292779999999998</c:v>
+                        <c:v>5.6228020000000001</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>3.7490410000000001</c:v>
+                        <c:v>5.5554290000000002</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>3.6584479999999999</c:v>
+                        <c:v>6.0297400000000003</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>3.6264539999999998</c:v>
+                        <c:v>7.2849620000000002</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>3.5450349999999999</c:v>
+                        <c:v>5.4357569999999997</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>3.4631569999999998</c:v>
+                        <c:v>5.2245949999999999</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>3.9801859999999998</c:v>
+                        <c:v>5.4182740000000003</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>4.0023150000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>3.4886180000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>3.4915850000000002</c:v>
+                        <c:v>7.4134520000000004</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+                    <c16:uniqueId val="{00000005-7C2C-424C-8576-B8704EBCFCD6}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -9360,10 +11592,10 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$H$1</c15:sqref>
+                          <c15:sqref>'Startup AFAP pull'!$H$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9376,89 +11608,150 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
+                  <a:ln w="34925" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP pull'!$A$2:$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$H$2:$H$18</c15:sqref>
+                          <c15:sqref>'Startup AFAP pull'!$H$2:$H$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="17"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
-                        <c:v>25.279799000000001</c:v>
+                        <c:v>23.839656999999999</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>16.615819999999999</c:v>
+                        <c:v>12.310394000000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>5.8063929999999999</c:v>
+                        <c:v>6.5757310000000002</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>4.3528830000000003</c:v>
+                        <c:v>8.5204439999999995</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4.2415659999999997</c:v>
+                        <c:v>7.3330859999999998</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>4.4622960000000003</c:v>
+                        <c:v>7.567736</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>4.4734379999999998</c:v>
+                        <c:v>6.2650800000000002</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>4.4915880000000001</c:v>
+                        <c:v>6.7456149999999999</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>4.543005</c:v>
+                        <c:v>6.9506009999999998</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>4.3592399999999998</c:v>
+                        <c:v>6.2019070000000003</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>4.342352</c:v>
+                        <c:v>6.3932180000000001</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>4.0440969999999998</c:v>
+                        <c:v>8.2066359999999996</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>4.4796449999999997</c:v>
+                        <c:v>5.8417789999999998</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>4.6085060000000002</c:v>
+                        <c:v>5.7552570000000003</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>5.3984350000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>4.6441330000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>5.1094439999999999</c:v>
+                        <c:v>6.4686669999999999</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+                    <c16:uniqueId val="{00000006-7C2C-424C-8576-B8704EBCFCD6}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -9469,228 +11762,10 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$I$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>https qf 1080i50</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$I$2:$I$18</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="17"/>
-                      <c:pt idx="0">
-                        <c:v>40.012239999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>8.5605759999999993</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5.4299059999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>5.6088820000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5.2901769999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>5.4804370000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>5.4860040000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>5.3801829999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>5.5302170000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>5.1470079999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>5.2531410000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>5.2197370000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>14.832488</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>5.9928119999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>5.6133709999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>5.4028080000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>5.460915</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-82D1-4A8C-A3C6-0AB20E245BFC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="8"/>
-                <c:order val="8"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$J$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>https qf 1080i50 kfalse</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$J$2:$J$18</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="17"/>
-                      <c:pt idx="0">
-                        <c:v>53.064568000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>14.348948999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>10.435625999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>9.8638130000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>9.5038850000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>8.8914340000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>9.6400170000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>9.0158299999999993</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9.4992959999999993</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>11.006259</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>8.6647859999999994</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>17.975034999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>10.007667</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>10.263892999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>10.035323</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>10.425675999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>9.19923</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-82D1-4A8C-A3C6-0AB20E245BFC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="9"/>
-                <c:order val="9"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$K$1</c15:sqref>
+                          <c15:sqref>'Startup AFAP pull'!$I$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9703,637 +11778,150 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
+                  <a:ln w="34925" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent4">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$K$2:$K$18</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="17"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>10</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000009-82D1-4A8C-A3C6-0AB20E245BFC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="10"/>
-                <c:order val="10"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$L$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>http 720p60</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$L$2:$L$18</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="17"/>
-                      <c:pt idx="0">
-                        <c:v>37.046900000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>9.2768130000000006</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>6.1370969999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6.0623060000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5.8272320000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6.0423720000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6.0121890000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>6.1735340000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>5.8703469999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>5.9515250000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>5.8111360000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>5.8053619999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>6.062875</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>5.8075760000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>13.803869000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>6.9010249999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>5.9644310000000003</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000A-82D1-4A8C-A3C6-0AB20E245BFC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="11"/>
-                <c:order val="11"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$M$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>http 720p60 kfalse</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$M$2:$M$18</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="17"/>
-                      <c:pt idx="0">
-                        <c:v>27.875112000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>9.3791729999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>6.9144220000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>7.2270519999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>6.5338399999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>7.3092509999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6.6053540000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>6.7077419999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>6.9207650000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>6.8903860000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>6.6999630000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>6.7383810000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>6.4500299999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>6.9872540000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>6.5933299999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>7.1332950000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>8.3746709999999993</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000B-82D1-4A8C-A3C6-0AB20E245BFC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="12"/>
-                <c:order val="12"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$N$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>https 720p60</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
                         <a:lumMod val="80000"/>
                         <a:lumOff val="20000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Startup AFAP pull'!$A$2:$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$N$2:$N$18</c15:sqref>
+                          <c15:sqref>'Startup AFAP pull'!$I$2:$I$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="17"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
-                        <c:v>44.258879</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>12.123417999999999</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>11.238526</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>9.7163400000000006</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>9.4020820000000001</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>9.3885170000000002</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>9.5632009999999994</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>9.2094699999999996</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>9.460248</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>12.596997999999999</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>9.9358780000000007</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>9.8160799999999995</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>9.2987520000000004</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>10.158605</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>9.2357849999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>10.02528</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>9.918666</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000C-82D1-4A8C-A3C6-0AB20E245BFC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="13"/>
-                <c:order val="13"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$O$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>https 720p60 kfalse</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$O$2:$O$18</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="17"/>
-                      <c:pt idx="0">
-                        <c:v>46.149473</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>17.421484</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>13.556521999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>13.319984</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>13.579186</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>13.46297</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>13.972772000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>13.248554</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>23.057189999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>16.472570999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>13.498336999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>13.937241</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>13.087857</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>14.004541</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>14.628398000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>12.980475999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>14.747742000000001</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000D-82D1-4A8C-A3C6-0AB20E245BFC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="14"/>
-                <c:order val="14"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$P$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>720p60 ideal</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Startup AFAP push'!$P$2:$P$18</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="17"/>
-                      <c:pt idx="0">
-                        <c:v>16.683333333333334</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>16.683333333333334</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>16.683333333333334</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>16.683333333333334</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>16.683333333333334</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>16.683333333333334</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>16.683333333333334</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>16.683333333333334</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>16.683333333333334</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>16.683333333333334</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>16.683333333333334</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>16.683333333333334</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>16.683333333333334</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>16.683333333333334</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>16.683333333333334</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>16.683333333333334</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>16.683333333333334</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000E-82D1-4A8C-A3C6-0AB20E245BFC}"/>
+                    <c16:uniqueId val="{00000007-7C2C-424C-8576-B8704EBCFCD6}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -10342,12 +11930,66 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="336156832"/>
+        <c:axId val="464928752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>frames</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10355,9 +11997,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -10371,9 +12013,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -10384,7 +12025,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269665008"/>
+        <c:crossAx val="365166304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10392,7 +12033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269665008"/>
+        <c:axId val="365166304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10402,9 +12043,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -10412,6 +12053,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ms/frame</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10430,9 +12124,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -10443,7 +12136,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336156832"/>
+        <c:crossAx val="464928752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10472,9 +12165,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -10491,17 +12183,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -10518,12 +12221,52 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10841,12 +12584,9 @@
 </file>
 
 <file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -11356,6 +13096,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
   <cs:axisTitle>
@@ -14709,35 +16965,33 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -14745,26 +16999,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -14773,9 +17035,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -14794,14 +17055,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -14810,45 +17063,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -14860,31 +17103,29 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -14902,21 +17143,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -14926,20 +17164,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -14953,14 +17191,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -14974,9 +17212,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -14990,12 +17227,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -15007,9 +17238,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -15024,14 +17255,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -15043,14 +17273,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -15062,14 +17292,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -15078,14 +17307,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -15093,7 +17321,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -15106,11 +17334,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -15118,14 +17356,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -15137,12 +17375,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -15158,7 +17403,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -15167,9 +17411,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -15179,7 +17422,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -15187,9 +17430,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -15200,9 +17443,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -15214,12 +17456,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -15300,16 +17536,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>93980</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15485,16 +17721,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>73660</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>408940</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15514,6 +17750,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCBA922E-3052-4D8D-A2A0-97C1002B2C1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18160,8 +20434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="J38" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -22418,8 +24692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:N16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -24283,7 +26557,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -24292,7 +26566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:P18"/>
     </sheetView>
   </sheetViews>
